--- a/Cron/ncaamb/bets_20251202.xlsx
+++ b/Cron/ncaamb/bets_20251202.xlsx
@@ -1,39 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crame\Documents\Sport-Website\PMSports\Cron\ncaamb\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F41F1CC8-0235-47E6-8F35-88ADC7E6B127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="56">
   <si>
     <t>type</t>
   </si>
@@ -74,6 +55,9 @@
     <t>confidence</t>
   </si>
   <si>
+    <t>good_bet_score</t>
+  </si>
+  <si>
     <t>ML</t>
   </si>
   <si>
@@ -173,29 +157,41 @@
     <t>OU</t>
   </si>
   <si>
-    <t>20251202_Army_George Washington</t>
-  </si>
-  <si>
-    <t>UNDER</t>
+    <t>20251202_Drake_Western Illinois</t>
+  </si>
+  <si>
+    <t>OVER</t>
   </si>
   <si>
     <t>betonlineag</t>
   </si>
   <si>
-    <t>20251202_Duquesne_William &amp; Mary</t>
-  </si>
-  <si>
-    <t>Column1</t>
+    <t>20251202_Houston Christian_North Texas</t>
+  </si>
+  <si>
+    <t>20251202_Lindenwood_Northern Illinois</t>
+  </si>
+  <si>
+    <t>20251202_Loyola Marymount_Saint Louis</t>
+  </si>
+  <si>
+    <t>20251202_Morehead St._Murray St.</t>
+  </si>
+  <si>
+    <t>20251202_Oklahoma_Wake Forest</t>
+  </si>
+  <si>
+    <t>20251202_Oregon_USC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0.000;[Red]\-#,##0.000"/>
+    <numFmt numFmtId="164" formatCode="#,##0.000;[Red]-#,##0.000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,7 +220,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -232,69 +228,47 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="2">
+    <dxf/>
     <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.000;[Red]\-#,##0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.000;[Red]\-#,##0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.000;[Red]\-#,##0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.000;[Red]\-#,##0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.000;[Red]\-#,##0.000"/>
+      <numFmt numFmtId="164" formatCode="#,##0.000;[Red]-#,##0.000"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Frame0" displayName="Frame0" ref="A1:N8" totalsRowShown="0">
-  <autoFilter ref="A1:N8" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:N14" totalsRowShown="0">
+  <autoFilter ref="A1:N14"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="type"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="date"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="game_id"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="bet_on"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="opponent"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="odds"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="decimal"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="win_prob"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="ev_percent" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="bookmaker"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="ensemble" dataDxfId="3"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="ou_point" dataDxfId="2"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="confidence" dataDxfId="1"/>
-    <tableColumn id="14" xr3:uid="{3BE5721B-2B66-45E8-8DA3-613850546A03}" name="Column1" dataDxfId="0">
-      <calculatedColumnFormula>Frame0[[#This Row],[ensemble]]-Frame0[[#This Row],[ou_point]]</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="1" name="type" dataDxfId="0"/>
+    <tableColumn id="2" name="date" dataDxfId="0"/>
+    <tableColumn id="3" name="game_id" dataDxfId="0"/>
+    <tableColumn id="4" name="bet_on" dataDxfId="0"/>
+    <tableColumn id="5" name="opponent" dataDxfId="0"/>
+    <tableColumn id="6" name="odds" dataDxfId="0"/>
+    <tableColumn id="7" name="decimal" dataDxfId="0"/>
+    <tableColumn id="8" name="win_prob" dataDxfId="0"/>
+    <tableColumn id="9" name="ev_percent" dataDxfId="1"/>
+    <tableColumn id="10" name="bookmaker" dataDxfId="0"/>
+    <tableColumn id="11" name="ensemble" dataDxfId="1"/>
+    <tableColumn id="12" name="ou_point" dataDxfId="1"/>
+    <tableColumn id="13" name="confidence" dataDxfId="1"/>
+    <tableColumn id="14" name="good_bet_score" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -332,7 +306,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -366,7 +340,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -401,10 +374,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -577,25 +549,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C7:C8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -636,276 +597,475 @@
         <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I2" s="2">
         <v>4.76</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
-      <c r="N2" s="3">
-        <f>Frame0[[#This Row],[ensemble]]-Frame0[[#This Row],[ou_point]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N2" s="2"/>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I3" s="2">
         <v>6.66</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
-      <c r="N3" s="3">
-        <f>Frame0[[#This Row],[ensemble]]-Frame0[[#This Row],[ou_point]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N3" s="2"/>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I4" s="2">
         <v>1.44</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
-      <c r="N4" s="3">
-        <f>Frame0[[#This Row],[ensemble]]-Frame0[[#This Row],[ou_point]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N4" s="2"/>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I5" s="2">
         <v>3.41</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
-      <c r="N5" s="3">
-        <f>Frame0[[#This Row],[ensemble]]-Frame0[[#This Row],[ou_point]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N5" s="2"/>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I6" s="2">
         <v>3.47</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
-      <c r="N6" s="3">
-        <f>Frame0[[#This Row],[ensemble]]-Frame0[[#This Row],[ou_point]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N6" s="2"/>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="2">
-        <v>-1.65</v>
+        <v>0.36</v>
       </c>
       <c r="J7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K7" s="2">
+        <v>136.36</v>
+      </c>
+      <c r="L7" s="2">
+        <v>136</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0.5296999999999999</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0.503</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="K7" s="2">
-        <v>154.35</v>
-      </c>
-      <c r="L7" s="2">
-        <v>156</v>
-      </c>
-      <c r="M7" s="2">
-        <v>0.36630000000000001</v>
-      </c>
-      <c r="N7" s="3">
-        <f>Frame0[[#This Row],[ensemble]]-Frame0[[#This Row],[ou_point]]</f>
-        <v>-1.6500000000000057</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="2">
-        <v>-1.81</v>
+        <v>0.2</v>
       </c>
       <c r="J8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K8" s="2">
+        <v>128.7</v>
+      </c>
+      <c r="L8" s="2">
+        <v>128.5</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0.5163</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0.5036</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="K8" s="2">
-        <v>165.69</v>
-      </c>
-      <c r="L8" s="2">
-        <v>167.5</v>
-      </c>
-      <c r="M8" s="2">
-        <v>0.37340000000000001</v>
-      </c>
-      <c r="N8" s="3">
-        <f>Frame0[[#This Row],[ensemble]]-Frame0[[#This Row],[ou_point]]</f>
-        <v>-1.8100000000000023</v>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K9" s="2">
+        <v>136.1</v>
+      </c>
+      <c r="L9" s="2">
+        <v>135.5</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0.5498</v>
+      </c>
+      <c r="N9" s="2">
+        <v>0.5013</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" s="2">
+        <v>150.15</v>
+      </c>
+      <c r="L10" s="2">
+        <v>150</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0.5125</v>
+      </c>
+      <c r="N10" s="2">
+        <v>0.5029</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K11" s="2">
+        <v>145.53</v>
+      </c>
+      <c r="L11" s="2">
+        <v>145.5</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0.5028</v>
+      </c>
+      <c r="N11" s="2">
+        <v>0.5125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K12" s="2">
+        <v>157.55</v>
+      </c>
+      <c r="L12" s="2">
+        <v>157.5</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0.5044999999999999</v>
+      </c>
+      <c r="N12" s="2">
+        <v>0.5195</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K13" s="2">
+        <v>160.21</v>
+      </c>
+      <c r="L13" s="2">
+        <v>160</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0.5175</v>
+      </c>
+      <c r="N13" s="2">
+        <v>0.5059</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="2">
+        <v>0.44</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K14" s="2">
+        <v>155.44</v>
+      </c>
+      <c r="L14" s="2">
+        <v>155</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0.5363</v>
+      </c>
+      <c r="N14" s="2">
+        <v>0.5205</v>
       </c>
     </row>
   </sheetData>
